--- a/Powder Coat Booth/2023_Apr_12_MD_Powder_Coat_Booth_BOM.xlsx
+++ b/Powder Coat Booth/2023_Apr_12_MD_Powder_Coat_Booth_BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Tube_Frame_Printer\Powder Coat Booth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8469FD47-CF2C-4F53-A505-33005E4456ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5175BCC3-0EDB-4CA3-8FDD-0DAD5BAA6177}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12383" xr2:uid="{A454B465-B9F8-4B4B-91C6-3CC93ABF52B8}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12383" activeTab="1" xr2:uid="{A454B465-B9F8-4B4B-91C6-3CC93ABF52B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stud Cuts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -97,6 +98,150 @@
   </si>
   <si>
     <t>1.2x.6 m x 50mm sheet</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Walls - sides</t>
+  </si>
+  <si>
+    <t>Walls - back</t>
+  </si>
+  <si>
+    <t>Walls End Cap Sides</t>
+  </si>
+  <si>
+    <t>Walls End Cap Back</t>
+  </si>
+  <si>
+    <t>Panel - Door</t>
+  </si>
+  <si>
+    <t>End Cap - Door</t>
+  </si>
+  <si>
+    <t>Panel - TNB</t>
+  </si>
+  <si>
+    <t>End Cap - TNB</t>
+  </si>
+  <si>
+    <t>Hole</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Description - Studs</t>
+  </si>
+  <si>
+    <t>Spacing</t>
+  </si>
+  <si>
+    <t>Hole Punch Parameters</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Absolute Poisition XY = 0.0</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Drill Positions =&gt;  Y coordinate</t>
+  </si>
+  <si>
+    <t>Last Hole</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>DP CNC</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Panels Required</t>
+  </si>
+  <si>
+    <t>Back Wall with Fan</t>
+  </si>
+  <si>
+    <t>Back Wall Short with Fan</t>
+  </si>
+  <si>
+    <t>Back Wall Cover</t>
+  </si>
+  <si>
+    <t>Back Wall Cover Short</t>
+  </si>
+  <si>
+    <t>Shiny Side</t>
+  </si>
+  <si>
+    <t>Side Walls</t>
+  </si>
+  <si>
+    <t>Side Walls Door Support</t>
+  </si>
+  <si>
+    <t>Side Walls Short</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Top Short</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Door Short</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Bottom Short</t>
   </si>
 </sst>
 </file>
@@ -106,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +266,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -138,18 +307,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218D54CB-3A16-474E-86BA-F9E39CB1329A}">
   <dimension ref="A5:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -725,4 +968,1132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21F4C1B-06C2-428A-97EE-4F989D2C4F61}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.46484375" customWidth="1"/>
+    <col min="2" max="2" width="17.06640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.86328125" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" customWidth="1"/>
+    <col min="7" max="7" width="7.86328125" customWidth="1"/>
+    <col min="8" max="8" width="5.73046875" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" customWidth="1"/>
+    <col min="10" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="6.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="D1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4">
+        <v>5</v>
+      </c>
+      <c r="O2" s="4">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>8</v>
+      </c>
+      <c r="R2" s="4">
+        <v>9</v>
+      </c>
+      <c r="S2" s="4">
+        <v>10</v>
+      </c>
+      <c r="T2" s="4">
+        <v>11</v>
+      </c>
+      <c r="U2" s="4">
+        <v>12</v>
+      </c>
+      <c r="V2" s="4">
+        <v>13</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2080</v>
+      </c>
+      <c r="D3" s="8">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8">
+        <v>205.2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>205.2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2052</v>
+      </c>
+      <c r="H3" s="8">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <f>J3+$E3</f>
+        <v>205.2</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:S3" si="0">K3+$E3</f>
+        <v>410.4</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
+        <v>615.59999999999991</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" si="0"/>
+        <v>820.8</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" si="0"/>
+        <v>1026</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" si="0"/>
+        <v>1231.2</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" si="0"/>
+        <v>1436.4</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" si="0"/>
+        <v>1641.6000000000001</v>
+      </c>
+      <c r="S3" s="8">
+        <f t="shared" si="0"/>
+        <v>1846.8000000000002</v>
+      </c>
+      <c r="T3" s="11">
+        <f t="shared" ref="T3:T4" si="1">S3+F3</f>
+        <v>2052</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2080</v>
+      </c>
+      <c r="D4" s="8">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8">
+        <v>205.2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>205.2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2052</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:S4" si="2">J4+$E4</f>
+        <v>205.2</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="2"/>
+        <v>410.4</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="2"/>
+        <v>615.59999999999991</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" si="2"/>
+        <v>820.8</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="2"/>
+        <v>1026</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="2"/>
+        <v>1231.2</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="2"/>
+        <v>1436.4</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="2"/>
+        <v>1641.6000000000001</v>
+      </c>
+      <c r="S4" s="8">
+        <f t="shared" si="2"/>
+        <v>1846.8000000000002</v>
+      </c>
+      <c r="T4" s="11">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2181.6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>200</v>
+      </c>
+      <c r="F5" s="6">
+        <v>151.6</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2151.6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <f>F5</f>
+        <v>151.6</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:U5" si="3">K5+$E5</f>
+        <v>351.6</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="3"/>
+        <v>551.6</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="3"/>
+        <v>751.6</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="3"/>
+        <v>951.6</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="3"/>
+        <v>1151.5999999999999</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="3"/>
+        <v>1351.6</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="3"/>
+        <v>1551.6</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="3"/>
+        <v>1751.6</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="3"/>
+        <v>1951.6</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="3"/>
+        <v>2151.6</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2160</v>
+      </c>
+      <c r="D6" s="6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" s="6">
+        <v>130</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2130</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>130</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ref="L6:U6" si="4">K6+$E6</f>
+        <v>330</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="4"/>
+        <v>530</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="4"/>
+        <v>730</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="4"/>
+        <v>930</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="4"/>
+        <v>1130</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="4"/>
+        <v>1330</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="4"/>
+        <v>1530</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="4"/>
+        <v>1730</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="4"/>
+        <v>1930</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="4"/>
+        <v>2130</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2363.1999999999998</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>212.29</v>
+      </c>
+      <c r="F7" s="6">
+        <v>212.29</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2335.19</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ref="K7:T8" si="5">J7+$E7</f>
+        <v>212.29</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="5"/>
+        <v>424.58</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="5"/>
+        <v>636.87</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="5"/>
+        <v>849.16</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="5"/>
+        <v>1061.45</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="5"/>
+        <v>1273.74</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="5"/>
+        <v>1486.03</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="5"/>
+        <v>1698.32</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="5"/>
+        <v>1910.61</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="5"/>
+        <v>2122.9</v>
+      </c>
+      <c r="U7" s="12">
+        <f t="shared" ref="U7:U8" si="6">T7+F7</f>
+        <v>2335.19</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2181.6</v>
+      </c>
+      <c r="D8" s="8">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8">
+        <v>200</v>
+      </c>
+      <c r="F8" s="8">
+        <v>151.6</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2151.6</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" ref="K8:S8" si="7">J8+$E8</f>
+        <v>200</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="7"/>
+        <v>1400</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="S8" s="8">
+        <f t="shared" si="7"/>
+        <v>1800</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="6"/>
+        <v>2151.6</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2255</v>
+      </c>
+      <c r="D9" s="6">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>222.7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>222.7</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2227</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ref="K9:S9" si="8">J9+$E9</f>
+        <v>222.7</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="8"/>
+        <v>445.4</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="8"/>
+        <v>668.09999999999991</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="8"/>
+        <v>890.8</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="8"/>
+        <v>1113.5</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="8"/>
+        <v>1336.2</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="8"/>
+        <v>1558.9</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="8"/>
+        <v>1781.6000000000001</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="8"/>
+        <v>2004.3000000000002</v>
+      </c>
+      <c r="T9" s="12">
+        <f>S9+F9</f>
+        <v>2227</v>
+      </c>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2365.19</v>
+      </c>
+      <c r="D10" s="6">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6">
+        <v>200</v>
+      </c>
+      <c r="F10" s="6">
+        <v>135.19</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2335.19</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f>F10</f>
+        <v>135.19</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" ref="L10:V10" si="9">K10+$E10</f>
+        <v>335.19</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="9"/>
+        <v>535.19000000000005</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="9"/>
+        <v>735.19</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="9"/>
+        <v>935.19</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="9"/>
+        <v>1135.19</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="9"/>
+        <v>1335.19</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="9"/>
+        <v>1535.19</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="9"/>
+        <v>1735.19</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="9"/>
+        <v>1935.19</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="9"/>
+        <v>2135.19</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="9"/>
+        <v>2335.19</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="10">
+        <f>SUM(H3:H10)</f>
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUM(J14:J17)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4">
+        <v>775.47519999999997</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>3</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4">
+        <v>57.131</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4">
+        <v>7</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <v>4</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="4">
+        <f>SUM(J18:J20)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4">
+        <v>902.56880000000001</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4">
+        <v>57.131</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="4">
+        <f>SUM(J21:J22)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="4">
+        <v>10</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>2</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4">
+        <f>C21-C18</f>
+        <v>127.09360000000004</v>
+      </c>
+      <c r="E24" s="4">
+        <v>11</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="4">
+        <f>SUM(J23:J24)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C22-C19</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>12</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E26" s="4">
+        <v>13</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="4">
+        <f>SUM(J25:J26)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="4">
+        <f>SUM(J14:J26)</f>
+        <v>24</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
+        <f>SUM(L14:L26)</f>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F14:H14"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="200" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="T9 U6" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>